--- a/data/case1/11/Q1_3.xlsx
+++ b/data/case1/11/Q1_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.24282136530157317</v>
+        <v>0.22018249879080543</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.030504372032101656</v>
+        <v>-0.0059999999653719271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999147921628</v>
+        <v>0.017144659581004973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999998506732339</v>
+        <v>-0.0079999999443476355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999033272218</v>
+        <v>-0.0029999999685212941</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999998858644119</v>
+        <v>-0.0019999999661113321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999997801414331</v>
+        <v>-0.0099999999221798141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999997770527926</v>
+        <v>-0.0099999999217494917</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999998795303675</v>
+        <v>0.023596668119048481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999998781479178</v>
+        <v>-0.0019999999647950517</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999998650778181</v>
+        <v>-0.0029999999590071269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0027544715017868704</v>
+        <v>-0.0034999999557396855</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999998574480884</v>
+        <v>-0.0034999999541760474</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999997988196014</v>
+        <v>-0.0079999999290665258</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999989122867561</v>
+        <v>-0.00099999996776212186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999998797857188</v>
+        <v>0.0031682341005225823</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.015457221032391999</v>
+        <v>-0.0019999999617965614</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999998570854345</v>
+        <v>-0.0039999999505528905</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.003999999941674659</v>
+        <v>-0.0039999999755546689</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.032403477529461711</v>
+        <v>-0.051966594094952967</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999264006547</v>
+        <v>-0.0039999999663242747</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999258766294</v>
+        <v>-0.0039999999661128882</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.038509783717096013</v>
+        <v>-0.0049999999624787961</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.01999999968898436</v>
+        <v>-0.019999999876278096</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999684614522</v>
+        <v>-0.01999999987465273</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999998752637254</v>
+        <v>-0.0024999999620476387</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999998686277003</v>
+        <v>-0.0024999999600501255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999998457791435</v>
+        <v>-0.0019999999561131077</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999997594134555</v>
+        <v>-0.006999999922605582</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999056356224</v>
+        <v>-0.059999999626469513</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999997417102833</v>
+        <v>0.0072717299436089178</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.009999999701408413</v>
+        <v>-0.0099999999020621289</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999997795039377</v>
+        <v>-0.003999999935198062</v>
       </c>
     </row>
   </sheetData>
